--- a/cruces.xlsx
+++ b/cruces.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8872" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9022" uniqueCount="298">
   <si>
     <t>fecha</t>
   </si>
@@ -905,6 +905,15 @@
   <si>
     <t>2025.08.15</t>
   </si>
+  <si>
+    <t>2025.08.22</t>
+  </si>
+  <si>
+    <t>Abzan Pestilence</t>
+  </si>
+  <si>
+    <t>2025.08.29</t>
+  </si>
 </sst>
 </file>
 
@@ -1146,10 +1155,10 @@
   <dimension ref="A1:F3935"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B3031" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B3082" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2922" sqref="A2922"/>
-      <selection pane="bottomRight" activeCell="C3061" sqref="C3061"/>
+      <selection pane="bottomRight" activeCell="C3112" sqref="C3112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
@@ -61101,183 +61110,1041 @@
       </c>
     </row>
     <row r="3061" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A3061" s="1"/>
+      <c r="A3061" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3061">
+        <v>1</v>
+      </c>
+      <c r="C3061" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3061" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3061">
+        <v>2</v>
+      </c>
+      <c r="F3061">
+        <v>1</v>
+      </c>
     </row>
     <row r="3062" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A3062" s="1"/>
+      <c r="A3062" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3062">
+        <v>1</v>
+      </c>
+      <c r="C3062" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3062" t="s">
+        <v>278</v>
+      </c>
+      <c r="E3062">
+        <v>2</v>
+      </c>
+      <c r="F3062">
+        <v>1</v>
+      </c>
     </row>
     <row r="3063" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A3063" s="1"/>
+      <c r="A3063" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3063">
+        <v>1</v>
+      </c>
+      <c r="C3063" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3063" t="s">
+        <v>272</v>
+      </c>
+      <c r="E3063">
+        <v>2</v>
+      </c>
+      <c r="F3063">
+        <v>1</v>
+      </c>
     </row>
     <row r="3064" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A3064" s="1"/>
+      <c r="A3064" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3064">
+        <v>1</v>
+      </c>
+      <c r="C3064" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3064" t="s">
+        <v>293</v>
+      </c>
+      <c r="E3064">
+        <v>2</v>
+      </c>
+      <c r="F3064">
+        <v>0</v>
+      </c>
     </row>
     <row r="3065" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A3065" s="1"/>
+      <c r="A3065" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3065">
+        <v>1</v>
+      </c>
+      <c r="C3065" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3065" t="s">
+        <v>296</v>
+      </c>
+      <c r="E3065">
+        <v>2</v>
+      </c>
+      <c r="F3065">
+        <v>1</v>
+      </c>
     </row>
     <row r="3066" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A3066" s="1"/>
+      <c r="A3066" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3066">
+        <v>1</v>
+      </c>
+      <c r="C3066" t="s">
+        <v>259</v>
+      </c>
+      <c r="D3066" t="s">
+        <v>216</v>
+      </c>
+      <c r="E3066">
+        <v>1</v>
+      </c>
+      <c r="F3066">
+        <v>1</v>
+      </c>
     </row>
     <row r="3067" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A3067" s="1"/>
+      <c r="A3067" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3067">
+        <v>1</v>
+      </c>
+      <c r="C3067" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3067" t="s">
+        <v>278</v>
+      </c>
+      <c r="E3067">
+        <v>2</v>
+      </c>
+      <c r="F3067">
+        <v>1</v>
+      </c>
     </row>
     <row r="3068" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A3068" s="1"/>
+      <c r="A3068" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3068">
+        <v>1</v>
+      </c>
+      <c r="C3068" t="s">
+        <v>278</v>
+      </c>
+      <c r="D3068" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3068">
+        <v>2</v>
+      </c>
+      <c r="F3068">
+        <v>1</v>
+      </c>
     </row>
     <row r="3069" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A3069" s="1"/>
+      <c r="A3069" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3069">
+        <v>1</v>
+      </c>
+      <c r="C3069" t="s">
+        <v>293</v>
+      </c>
+      <c r="D3069" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3069">
+        <v>2</v>
+      </c>
+      <c r="F3069">
+        <v>1</v>
+      </c>
     </row>
     <row r="3070" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A3070" s="1"/>
+      <c r="A3070" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3070">
+        <v>2</v>
+      </c>
+      <c r="C3070" t="s">
+        <v>293</v>
+      </c>
+      <c r="D3070" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3070">
+        <v>2</v>
+      </c>
+      <c r="F3070">
+        <v>1</v>
+      </c>
     </row>
     <row r="3071" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A3071" s="1"/>
+      <c r="A3071" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3071">
+        <v>2</v>
+      </c>
+      <c r="C3071" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3071" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3071">
+        <v>2</v>
+      </c>
+      <c r="F3071">
+        <v>0</v>
+      </c>
     </row>
     <row r="3072" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A3072" s="1"/>
-    </row>
-    <row r="3073" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A3073" s="1"/>
-    </row>
-    <row r="3074" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A3074" s="1"/>
-    </row>
-    <row r="3075" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A3075" s="1"/>
-    </row>
-    <row r="3076" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A3076" s="1"/>
-    </row>
-    <row r="3077" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A3077" s="1"/>
-    </row>
-    <row r="3078" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A3078" s="1"/>
-    </row>
-    <row r="3079" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A3079" s="1"/>
-    </row>
-    <row r="3080" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A3080" s="1"/>
-    </row>
-    <row r="3081" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A3081" s="1"/>
-    </row>
-    <row r="3082" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A3082" s="1"/>
-    </row>
-    <row r="3083" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A3083" s="1"/>
-    </row>
-    <row r="3084" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A3084" s="1"/>
-    </row>
-    <row r="3085" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A3085" s="1"/>
-    </row>
-    <row r="3086" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A3086" s="1"/>
-    </row>
-    <row r="3087" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A3087" s="1"/>
-    </row>
-    <row r="3088" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A3088" s="1"/>
-    </row>
-    <row r="3089" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A3089" s="1"/>
-    </row>
-    <row r="3090" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A3090" s="1"/>
-    </row>
-    <row r="3091" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A3091" s="1"/>
-    </row>
-    <row r="3092" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A3092" s="1"/>
-    </row>
-    <row r="3093" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A3093" s="1"/>
-    </row>
-    <row r="3094" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A3094" s="1"/>
-    </row>
-    <row r="3095" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A3095" s="1"/>
-    </row>
-    <row r="3096" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A3096" s="1"/>
-    </row>
-    <row r="3097" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A3097" s="1"/>
-    </row>
-    <row r="3098" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A3098" s="1"/>
-    </row>
-    <row r="3099" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A3099" s="1"/>
-    </row>
-    <row r="3100" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A3100" s="1"/>
-    </row>
-    <row r="3101" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A3101" s="1"/>
-    </row>
-    <row r="3102" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A3102" s="1"/>
-    </row>
-    <row r="3103" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A3103" s="1"/>
-    </row>
-    <row r="3104" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A3104" s="1"/>
-    </row>
-    <row r="3105" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A3105" s="1"/>
-    </row>
-    <row r="3106" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A3106" s="1"/>
-    </row>
-    <row r="3107" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A3107" s="1"/>
-    </row>
-    <row r="3108" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A3108" s="1"/>
-    </row>
-    <row r="3109" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A3109" s="1"/>
-    </row>
-    <row r="3110" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A3110" s="1"/>
-    </row>
-    <row r="3111" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A3111" s="1"/>
-    </row>
-    <row r="3112" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A3072" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3072">
+        <v>2</v>
+      </c>
+      <c r="C3072" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3072" t="s">
+        <v>278</v>
+      </c>
+      <c r="E3072">
+        <v>2</v>
+      </c>
+      <c r="F3072">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3073" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A3073" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3073">
+        <v>2</v>
+      </c>
+      <c r="C3073" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3073" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3073">
+        <v>2</v>
+      </c>
+      <c r="F3073">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3074" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A3074" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3074">
+        <v>2</v>
+      </c>
+      <c r="C3074" t="s">
+        <v>259</v>
+      </c>
+      <c r="D3074" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3074">
+        <v>2</v>
+      </c>
+      <c r="F3074">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3075" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A3075" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3075">
+        <v>2</v>
+      </c>
+      <c r="C3075" t="s">
+        <v>278</v>
+      </c>
+      <c r="D3075" t="s">
+        <v>216</v>
+      </c>
+      <c r="E3075">
+        <v>2</v>
+      </c>
+      <c r="F3075">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3076" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A3076" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3076">
+        <v>2</v>
+      </c>
+      <c r="C3076" t="s">
+        <v>293</v>
+      </c>
+      <c r="D3076" t="s">
+        <v>296</v>
+      </c>
+      <c r="E3076">
+        <v>1</v>
+      </c>
+      <c r="F3076">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3077" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A3077" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3077">
+        <v>2</v>
+      </c>
+      <c r="C3077" t="s">
+        <v>278</v>
+      </c>
+      <c r="D3077" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3077">
+        <v>2</v>
+      </c>
+      <c r="F3077">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3078" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A3078" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3078">
+        <v>2</v>
+      </c>
+      <c r="C3078" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3078" t="s">
+        <v>272</v>
+      </c>
+      <c r="E3078">
+        <v>2</v>
+      </c>
+      <c r="F3078">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3079" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A3079" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3079">
+        <v>3</v>
+      </c>
+      <c r="C3079" t="s">
+        <v>293</v>
+      </c>
+      <c r="D3079" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3079">
+        <v>2</v>
+      </c>
+      <c r="F3079">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3080" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A3080" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3080">
+        <v>3</v>
+      </c>
+      <c r="C3080" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3080" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3080">
+        <v>2</v>
+      </c>
+      <c r="F3080">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3081" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A3081" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3081">
+        <v>3</v>
+      </c>
+      <c r="C3081" t="s">
+        <v>278</v>
+      </c>
+      <c r="D3081" t="s">
+        <v>259</v>
+      </c>
+      <c r="E3081">
+        <v>2</v>
+      </c>
+      <c r="F3081">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3082" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A3082" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3082">
+        <v>3</v>
+      </c>
+      <c r="C3082" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3082" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3082">
+        <v>2</v>
+      </c>
+      <c r="F3082">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3083" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A3083" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3083">
+        <v>3</v>
+      </c>
+      <c r="C3083" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3083" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3083">
+        <v>2</v>
+      </c>
+      <c r="F3083">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3084" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A3084" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3084">
+        <v>3</v>
+      </c>
+      <c r="C3084" t="s">
+        <v>278</v>
+      </c>
+      <c r="D3084" t="s">
+        <v>278</v>
+      </c>
+      <c r="E3084">
+        <v>2</v>
+      </c>
+      <c r="F3084">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3085" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A3085" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3085">
+        <v>3</v>
+      </c>
+      <c r="C3085" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3085" t="s">
+        <v>296</v>
+      </c>
+      <c r="E3085">
+        <v>2</v>
+      </c>
+      <c r="F3085">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3086" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A3086" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3086">
+        <v>3</v>
+      </c>
+      <c r="C3086" t="s">
+        <v>293</v>
+      </c>
+      <c r="D3086" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3086">
+        <v>2</v>
+      </c>
+      <c r="F3086">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3087" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A3087" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3087">
+        <v>3</v>
+      </c>
+      <c r="C3087" t="s">
+        <v>272</v>
+      </c>
+      <c r="D3087" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3087">
+        <v>2</v>
+      </c>
+      <c r="F3087">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3088" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A3088" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B3088">
+        <v>1</v>
+      </c>
+      <c r="C3088" t="s">
+        <v>278</v>
+      </c>
+      <c r="D3088" t="s">
+        <v>293</v>
+      </c>
+      <c r="E3088">
+        <v>2</v>
+      </c>
+      <c r="F3088">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3089" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A3089" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B3089">
+        <v>1</v>
+      </c>
+      <c r="C3089" t="s">
+        <v>278</v>
+      </c>
+      <c r="D3089" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3089">
+        <v>2</v>
+      </c>
+      <c r="F3089">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3090" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A3090" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B3090">
+        <v>1</v>
+      </c>
+      <c r="C3090" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3090" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3090">
+        <v>2</v>
+      </c>
+      <c r="F3090">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3091" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A3091" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B3091">
+        <v>1</v>
+      </c>
+      <c r="C3091" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3091" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3091">
+        <v>2</v>
+      </c>
+      <c r="F3091">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3092" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A3092" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B3092">
+        <v>1</v>
+      </c>
+      <c r="C3092" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3092" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3092">
+        <v>2</v>
+      </c>
+      <c r="F3092">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3093" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A3093" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B3093">
+        <v>1</v>
+      </c>
+      <c r="C3093" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3093" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3093">
+        <v>2</v>
+      </c>
+      <c r="F3093">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3094" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A3094" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B3094">
+        <v>1</v>
+      </c>
+      <c r="C3094" t="s">
+        <v>271</v>
+      </c>
+      <c r="D3094" t="s">
+        <v>278</v>
+      </c>
+      <c r="E3094">
+        <v>2</v>
+      </c>
+      <c r="F3094">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3095" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A3095" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B3095">
+        <v>1</v>
+      </c>
+      <c r="C3095" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3095">
+        <v>2</v>
+      </c>
+      <c r="F3095">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3096" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A3096" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B3096">
+        <v>2</v>
+      </c>
+      <c r="C3096" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3096" t="s">
+        <v>278</v>
+      </c>
+      <c r="E3096">
+        <v>2</v>
+      </c>
+      <c r="F3096">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3097" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A3097" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B3097">
+        <v>2</v>
+      </c>
+      <c r="C3097" t="s">
+        <v>278</v>
+      </c>
+      <c r="D3097" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3097">
+        <v>2</v>
+      </c>
+      <c r="F3097">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3098" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A3098" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B3098">
+        <v>2</v>
+      </c>
+      <c r="C3098" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3098" t="s">
+        <v>271</v>
+      </c>
+      <c r="E3098">
+        <v>2</v>
+      </c>
+      <c r="F3098">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3099" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A3099" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B3099">
+        <v>2</v>
+      </c>
+      <c r="C3099" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3099" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3099">
+        <v>2</v>
+      </c>
+      <c r="F3099">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3100" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A3100" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B3100">
+        <v>2</v>
+      </c>
+      <c r="C3100" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3100" t="s">
+        <v>278</v>
+      </c>
+      <c r="E3100">
+        <v>2</v>
+      </c>
+      <c r="F3100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3101" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A3101" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B3101">
+        <v>2</v>
+      </c>
+      <c r="C3101" t="s">
+        <v>293</v>
+      </c>
+      <c r="D3101" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3101">
+        <v>2</v>
+      </c>
+      <c r="F3101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3102" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A3102" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B3102">
+        <v>2</v>
+      </c>
+      <c r="C3102" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3102" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3102">
+        <v>1</v>
+      </c>
+      <c r="F3102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3103" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A3103" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B3103">
+        <v>2</v>
+      </c>
+      <c r="C3103" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3103">
+        <v>2</v>
+      </c>
+      <c r="F3103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3104" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A3104" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B3104">
+        <v>3</v>
+      </c>
+      <c r="C3104" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3104" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3104">
+        <v>2</v>
+      </c>
+      <c r="F3104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3105" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A3105" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B3105">
+        <v>3</v>
+      </c>
+      <c r="C3105" t="s">
+        <v>278</v>
+      </c>
+      <c r="D3105" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3105">
+        <v>2</v>
+      </c>
+      <c r="F3105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3106" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A3106" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B3106">
+        <v>3</v>
+      </c>
+      <c r="C3106" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3106" t="s">
+        <v>278</v>
+      </c>
+      <c r="E3106">
+        <v>2</v>
+      </c>
+      <c r="F3106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3107" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A3107" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B3107">
+        <v>3</v>
+      </c>
+      <c r="C3107" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3107" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3107">
+        <v>2</v>
+      </c>
+      <c r="F3107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3108" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A3108" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B3108">
+        <v>3</v>
+      </c>
+      <c r="C3108" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3108" t="s">
+        <v>271</v>
+      </c>
+      <c r="E3108">
+        <v>2</v>
+      </c>
+      <c r="F3108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3109" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A3109" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B3109">
+        <v>3</v>
+      </c>
+      <c r="C3109" t="s">
+        <v>293</v>
+      </c>
+      <c r="D3109" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3109">
+        <v>2</v>
+      </c>
+      <c r="F3109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3110" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A3110" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B3110">
+        <v>3</v>
+      </c>
+      <c r="C3110" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3110" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3110">
+        <v>2</v>
+      </c>
+      <c r="F3110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3111" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A3111" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B3111">
+        <v>3</v>
+      </c>
+      <c r="C3111" t="s">
+        <v>278</v>
+      </c>
+      <c r="E3111">
+        <v>2</v>
+      </c>
+      <c r="F3111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3112" spans="1:6" ht="14.25" customHeight="1">
       <c r="A3112" s="1"/>
     </row>
-    <row r="3113" spans="1:1" ht="14.25" customHeight="1">
+    <row r="3113" spans="1:6" ht="14.25" customHeight="1">
       <c r="A3113" s="1"/>
     </row>
-    <row r="3114" spans="1:1" ht="14.25" customHeight="1">
+    <row r="3114" spans="1:6" ht="14.25" customHeight="1">
       <c r="A3114" s="1"/>
     </row>
-    <row r="3115" spans="1:1" ht="14.25" customHeight="1">
+    <row r="3115" spans="1:6" ht="14.25" customHeight="1">
       <c r="A3115" s="1"/>
     </row>
-    <row r="3116" spans="1:1" ht="14.25" customHeight="1">
+    <row r="3116" spans="1:6" ht="14.25" customHeight="1">
       <c r="A3116" s="1"/>
     </row>
-    <row r="3117" spans="1:1" ht="14.25" customHeight="1">
+    <row r="3117" spans="1:6" ht="14.25" customHeight="1">
       <c r="A3117" s="1"/>
     </row>
-    <row r="3118" spans="1:1" ht="14.25" customHeight="1">
+    <row r="3118" spans="1:6" ht="14.25" customHeight="1">
       <c r="A3118" s="1"/>
     </row>
-    <row r="3119" spans="1:1" ht="14.25" customHeight="1">
+    <row r="3119" spans="1:6" ht="14.25" customHeight="1">
       <c r="A3119" s="1"/>
     </row>
-    <row r="3120" spans="1:1" ht="14.25" customHeight="1">
+    <row r="3120" spans="1:6" ht="14.25" customHeight="1">
       <c r="A3120" s="1"/>
     </row>
     <row r="3121" spans="1:1" ht="14.25" customHeight="1">

--- a/cruces.xlsx
+++ b/cruces.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9022" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9064" uniqueCount="299">
   <si>
     <t>fecha</t>
   </si>
@@ -914,6 +914,9 @@
   <si>
     <t>2025.08.29</t>
   </si>
+  <si>
+    <t>2025.09.05</t>
+  </si>
 </sst>
 </file>
 
@@ -1155,10 +1158,10 @@
   <dimension ref="A1:F3935"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B3082" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B3103" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2922" sqref="A2922"/>
-      <selection pane="bottomRight" activeCell="C3112" sqref="C3112"/>
+      <selection pane="bottomRight" activeCell="C3122" sqref="C3122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
@@ -62121,78 +62124,324 @@
       </c>
     </row>
     <row r="3112" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A3112" s="1"/>
+      <c r="A3112" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B3112">
+        <v>1</v>
+      </c>
+      <c r="C3112" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3112" t="s">
+        <v>216</v>
+      </c>
+      <c r="E3112">
+        <v>2</v>
+      </c>
+      <c r="F3112">
+        <v>1</v>
+      </c>
     </row>
     <row r="3113" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A3113" s="1"/>
+      <c r="A3113" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B3113">
+        <v>1</v>
+      </c>
+      <c r="C3113" t="s">
+        <v>271</v>
+      </c>
+      <c r="D3113" t="s">
+        <v>278</v>
+      </c>
+      <c r="E3113">
+        <v>2</v>
+      </c>
+      <c r="F3113">
+        <v>0</v>
+      </c>
     </row>
     <row r="3114" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A3114" s="1"/>
+      <c r="A3114" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B3114">
+        <v>1</v>
+      </c>
+      <c r="C3114" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3114" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3114">
+        <v>2</v>
+      </c>
+      <c r="F3114">
+        <v>1</v>
+      </c>
     </row>
     <row r="3115" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A3115" s="1"/>
+      <c r="A3115" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B3115">
+        <v>1</v>
+      </c>
+      <c r="C3115" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3115" t="s">
+        <v>289</v>
+      </c>
+      <c r="E3115">
+        <v>2</v>
+      </c>
+      <c r="F3115">
+        <v>0</v>
+      </c>
     </row>
     <row r="3116" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A3116" s="1"/>
+      <c r="A3116" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B3116">
+        <v>1</v>
+      </c>
+      <c r="C3116" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3116">
+        <v>2</v>
+      </c>
+      <c r="F3116">
+        <v>0</v>
+      </c>
     </row>
     <row r="3117" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A3117" s="1"/>
+      <c r="A3117" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B3117">
+        <v>2</v>
+      </c>
+      <c r="C3117" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3117" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3117">
+        <v>2</v>
+      </c>
+      <c r="F3117">
+        <v>1</v>
+      </c>
     </row>
     <row r="3118" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A3118" s="1"/>
+      <c r="A3118" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B3118">
+        <v>2</v>
+      </c>
+      <c r="C3118" t="s">
+        <v>271</v>
+      </c>
+      <c r="D3118" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3118">
+        <v>2</v>
+      </c>
+      <c r="F3118">
+        <v>1</v>
+      </c>
     </row>
     <row r="3119" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A3119" s="1"/>
+      <c r="A3119" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B3119">
+        <v>2</v>
+      </c>
+      <c r="C3119" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3119" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3119">
+        <v>2</v>
+      </c>
+      <c r="F3119">
+        <v>1</v>
+      </c>
     </row>
     <row r="3120" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A3120" s="1"/>
-    </row>
-    <row r="3121" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A3121" s="1"/>
-    </row>
-    <row r="3122" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A3122" s="1"/>
-    </row>
-    <row r="3123" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A3123" s="1"/>
-    </row>
-    <row r="3124" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A3124" s="1"/>
-    </row>
-    <row r="3125" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A3125" s="1"/>
-    </row>
-    <row r="3126" spans="1:1" ht="14.25" customHeight="1">
-      <c r="A3126" s="1"/>
-    </row>
-    <row r="3127" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A3120" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B3120">
+        <v>2</v>
+      </c>
+      <c r="C3120" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3120" t="s">
+        <v>289</v>
+      </c>
+      <c r="E3120">
+        <v>2</v>
+      </c>
+      <c r="F3120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3121" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A3121" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B3121">
+        <v>2</v>
+      </c>
+      <c r="C3121" t="s">
+        <v>278</v>
+      </c>
+      <c r="E3121">
+        <v>2</v>
+      </c>
+      <c r="F3121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3122" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A3122" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B3122">
+        <v>3</v>
+      </c>
+      <c r="C3122" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3122" t="s">
+        <v>271</v>
+      </c>
+      <c r="E3122">
+        <v>2</v>
+      </c>
+      <c r="F3122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3123" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A3123" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B3123">
+        <v>3</v>
+      </c>
+      <c r="C3123" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3123" t="s">
+        <v>216</v>
+      </c>
+      <c r="E3123">
+        <v>2</v>
+      </c>
+      <c r="F3123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3124" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A3124" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B3124">
+        <v>3</v>
+      </c>
+      <c r="C3124" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3124" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3124">
+        <v>2</v>
+      </c>
+      <c r="F3124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3125" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A3125" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B3125">
+        <v>3</v>
+      </c>
+      <c r="C3125" t="s">
+        <v>289</v>
+      </c>
+      <c r="D3125" t="s">
+        <v>278</v>
+      </c>
+      <c r="E3125">
+        <v>2</v>
+      </c>
+      <c r="F3125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3126" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A3126" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B3126">
+        <v>3</v>
+      </c>
+      <c r="C3126" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3126">
+        <v>2</v>
+      </c>
+      <c r="F3126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3127" spans="1:6" ht="14.25" customHeight="1">
       <c r="A3127" s="1"/>
     </row>
-    <row r="3128" spans="1:1" ht="14.25" customHeight="1">
+    <row r="3128" spans="1:6" ht="14.25" customHeight="1">
       <c r="A3128" s="1"/>
     </row>
-    <row r="3129" spans="1:1" ht="14.25" customHeight="1">
+    <row r="3129" spans="1:6" ht="14.25" customHeight="1">
       <c r="A3129" s="1"/>
     </row>
-    <row r="3130" spans="1:1" ht="14.25" customHeight="1">
+    <row r="3130" spans="1:6" ht="14.25" customHeight="1">
       <c r="A3130" s="1"/>
     </row>
-    <row r="3131" spans="1:1" ht="14.25" customHeight="1">
+    <row r="3131" spans="1:6" ht="14.25" customHeight="1">
       <c r="A3131" s="1"/>
     </row>
-    <row r="3132" spans="1:1" ht="14.25" customHeight="1">
+    <row r="3132" spans="1:6" ht="14.25" customHeight="1">
       <c r="A3132" s="1"/>
     </row>
-    <row r="3133" spans="1:1" ht="14.25" customHeight="1">
+    <row r="3133" spans="1:6" ht="14.25" customHeight="1">
       <c r="A3133" s="1"/>
     </row>
-    <row r="3134" spans="1:1" ht="14.25" customHeight="1">
+    <row r="3134" spans="1:6" ht="14.25" customHeight="1">
       <c r="A3134" s="1"/>
     </row>
-    <row r="3135" spans="1:1" ht="14.25" customHeight="1">
+    <row r="3135" spans="1:6" ht="14.25" customHeight="1">
       <c r="A3135" s="1"/>
     </row>
-    <row r="3136" spans="1:1" ht="14.25" customHeight="1">
+    <row r="3136" spans="1:6" ht="14.25" customHeight="1">
       <c r="A3136" s="1"/>
     </row>
     <row r="3137" spans="1:1" ht="14.25" customHeight="1">
